--- a/data/AllTestCase.xlsx
+++ b/data/AllTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/WebTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ABEB00-4411-7341-89D8-55E9FDE86DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FF0134-D67D-7D41-996A-6D9128A97D9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>testCaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>710662952lyf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取消收藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,9 +240,6 @@
     <t>testStep15</t>
   </si>
   <si>
-    <t>15806284945</t>
-  </si>
-  <si>
     <t>点击收藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +379,10 @@
   </si>
   <si>
     <t>暂停操作(快速单击会失效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B688841E-C2E7-1346-9908-BDC668EE5743}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -799,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC540D8-3A3D-9149-951E-EC7B5568C7D0}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -849,22 +846,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -872,10 +869,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -884,10 +881,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -913,10 +910,10 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -936,7 +933,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -948,10 +945,10 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -971,13 +968,13 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1000,10 +997,10 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1017,25 +1014,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
         <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1046,22 +1043,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1075,28 +1072,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1104,28 +1101,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1133,22 +1130,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1162,13 +1159,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1180,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1191,10 +1188,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1203,13 +1200,13 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1220,22 +1217,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1249,25 +1246,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1278,13 +1275,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1296,10 +1293,10 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1307,22 +1304,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1336,10 +1333,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -1348,13 +1345,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
